--- a/5-Software Service Catalog -SS/Forms/Request Form - F1.xlsx
+++ b/5-Software Service Catalog -SS/Forms/Request Form - F1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heba.backar\Downloads\SW 2025 2\SW 2025\SW 2025\2-New Feature Request\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\5-Software Service Catalog -SS\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29116EDA-77A1-4C1B-AAAF-C9B3AA2F38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D92770-81DA-445F-8884-A4E6DF395767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
+    <workbookView xWindow="135" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-SW-FR-01" sheetId="1" r:id="rId1"/>
+    <sheet name="S-SW-SC-01" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-FR-01'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'S-SW-SC-01'!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -268,34 +268,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,7 +281,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,54 +1109,54 @@
     <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1164,25 +1164,25 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,19 +1190,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -1210,14 +1210,14 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,21 +1230,21 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1252,90 +1252,109 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C23:G23"/>
@@ -1352,25 +1371,6 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1383,8 +1383,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId4" name="OptionButton1">
+        <control shapeId="1028" r:id="rId4" name="OptionButton2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>314325</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId4" name="OptionButton2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId6" name="OptionButton1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -1403,32 +1428,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId4" name="OptionButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId6" name="OptionButton2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>314325</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId6" name="OptionButton2"/>
+        <control shapeId="1029" r:id="rId6" name="OptionButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1500,7 +1500,7 @@
   </controls>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select your department from the drop list" xr:uid="{1B1EE51F-BF2A-4F31-B845-9092864A5B6D}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$10</xm:f>

--- a/5-Software Service Catalog -SS/Forms/Request Form - F1.xlsx
+++ b/5-Software Service Catalog -SS/Forms/Request Form - F1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\5-Software Service Catalog -SS\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D92770-81DA-445F-8884-A4E6DF395767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA3A47-7C4C-49C8-9E6D-EED53333D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
   </bookViews>
   <sheets>
-    <sheet name="S-SW-SC-01" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-01" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'S-SW-SC-01'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-01'!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1095,7 +1095,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1376,7 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/01&amp;R&amp;"Arial,Regular"&amp;16Rev: 0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/01&amp;R&amp;"Arial,Regular"&amp;16Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
